--- a/ExcelDataReader/ExcelOperationsDetails.xlsx
+++ b/ExcelDataReader/ExcelOperationsDetails.xlsx
@@ -1,48 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anoop\Desktop\CompetitionTasks\CompetitionTasks\CompetitionTasks\ExcelDataReader\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE53FC-B0E4-4864-80FB-CBAD501D81BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{1875E527-A9BE-453D-8678-C39EF1B017D7}"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
     <sheet name="ManageListing" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+  <si>
+    <t>UserName</t>
+  </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>ashamechery11@gmail.com</t>
+    <t>shanthiroshan2012@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakshmi2012</t>
   </si>
   <si>
     <t>Title</t>
@@ -93,6 +78,9 @@
     <t>Active</t>
   </si>
   <si>
+    <t>Manual</t>
+  </si>
+  <si>
     <t>Automation Testing Description</t>
   </si>
   <si>
@@ -111,49 +99,49 @@
     <t>OnSite</t>
   </si>
   <si>
+    <t>24/05/2022</t>
+  </si>
+  <si>
     <t>Mon</t>
   </si>
   <si>
     <t>Tag12</t>
   </si>
   <si>
+    <t>C:\Users\anoop\Desktop\CompetitionTrial\CompetitionTrial\ExcelDataReader</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
     <t>Video &amp; Animation</t>
   </si>
   <si>
     <t>Lyric &amp; Music Videos</t>
   </si>
   <si>
+    <t>One-Off Service</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>31/05/2022</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
     <t>Tag123</t>
   </si>
   <si>
-    <t>One-Off Service</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
     <t>Hidden</t>
-  </si>
-  <si>
-    <t>C:\Users\anoop\Desktop\CompetitionTrial\CompetitionTrial\ExcelDataReader</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>UserName</t>
   </si>
   <si>
     <t>Mechanical</t>
@@ -165,30 +153,173 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +332,194 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -210,31 +527,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -283,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,26 +916,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -368,23 +951,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,347 +1092,350 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B2815-636F-45C7-A5B6-721F4321B201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EBA45621-12FA-4E66-9E4B-E0015C97D52F}"/>
+    <hyperlink ref="A2" r:id="rId1" display="shanthiroshan2012@gmail.com" tooltip="mailto:shanthiroshan2012@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090CE77F-9F92-48E5-8A8D-2619F3346F99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="28.8909090909091" customWidth="1"/>
+    <col min="3" max="3" width="23.1090909090909" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5545454545455" customWidth="1"/>
+    <col min="6" max="6" width="19.2181818181818" customWidth="1"/>
+    <col min="8" max="8" width="10.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="10.1090909090909" customWidth="1"/>
+    <col min="15" max="15" width="59.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f ca="1">TEXT(TODAY()+2,"DD/MM/YYYY")</f>
+        <v>16/06/2022</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4">
-        <v>44705</v>
-      </c>
-      <c r="I2" s="4">
-        <v>44712</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L2" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="str">
+        <f ca="1">TEXT(TODAY()+2,"DD/MM/YYYY")</f>
+        <v>16/06/2022</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4">
-        <v>44712</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44717</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>33</v>
+      <c r="P3" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977FBF6E-292E-4789-8049-C48C9A1E20E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.2181818181818" customWidth="1"/>
+    <col min="4" max="4" width="14.7818181818182" customWidth="1"/>
+    <col min="6" max="6" width="16.7818181818182" customWidth="1"/>
+    <col min="7" max="7" width="17.2181818181818" customWidth="1"/>
+    <col min="8" max="8" width="13.5545454545455" customWidth="1"/>
+    <col min="9" max="9" width="18.4454545454545" customWidth="1"/>
+    <col min="10" max="10" width="12.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44705</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>44712</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L2" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ExcelDataReader/ExcelOperationsDetails.xlsx
+++ b/ExcelDataReader/ExcelOperationsDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>UserName</t>
   </si>
@@ -99,9 +99,6 @@
     <t>OnSite</t>
   </si>
   <si>
-    <t>24/05/2022</t>
-  </si>
-  <si>
     <t>Mon</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
   </si>
   <si>
     <t>Online</t>
-  </si>
-  <si>
-    <t>31/05/2022</t>
   </si>
   <si>
     <t>Tue</t>
@@ -156,8 +150,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -184,6 +178,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -193,28 +225,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +270,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -267,44 +299,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -334,6 +328,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,25 +382,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,145 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +519,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,8 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,30 +619,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,127 +641,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -778,7 +772,6 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,7 +1094,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1139,8 +1132,8 @@
   <sheetPr/>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1228,15 +1221,16 @@
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
+      <c r="H2" s="3" t="str">
+        <f ca="1">TEXT(TODAY()+2,"DD/MM/YYYY")</f>
+        <v>21/06/2022</v>
       </c>
       <c r="I2" s="3" t="str">
         <f ca="1">TEXT(TODAY()+2,"DD/MM/YYYY")</f>
-        <v>16/06/2022</v>
+        <v>21/06/2022</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4">
         <v>0.416666666666667</v>
@@ -1248,10 +1242,10 @@
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>19</v>
@@ -1259,35 +1253,36 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>37</v>
+      <c r="H3" s="3" t="str">
+        <f ca="1">TEXT(TODAY()+2,"DD/MM/YYYY")</f>
+        <v>21/06/2022</v>
       </c>
       <c r="I3" s="3" t="str">
         <f ca="1">TEXT(TODAY()+2,"DD/MM/YYYY")</f>
-        <v>16/06/2022</v>
+        <v>21/06/2022</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" s="4">
         <v>0.166666666666667</v>
@@ -1296,16 +1291,16 @@
         <v>0.25</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1319,12 +1314,13 @@
   <sheetPr/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
+    <col min="1" max="1" width="10.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="20.2181818181818" customWidth="1"/>
     <col min="4" max="4" width="14.7818181818182" customWidth="1"/>
     <col min="6" max="6" width="16.7818181818182" customWidth="1"/>
@@ -1386,16 +1382,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1406,14 +1402,16 @@
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3">
-        <v>44705</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44712</v>
+      <c r="H2" s="3" t="str">
+        <f ca="1">TEXT(TODAY()+2,"DD/MM/YYYY")</f>
+        <v>21/06/2022</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f ca="1">TEXT(TODAY()+4,"DD/MM/YYYY")</f>
+        <v>23/06/2022</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4">
         <v>0.416666666666667</v>
@@ -1425,10 +1423,10 @@
         <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>19</v>
